--- a/bra_urls.xlsx
+++ b/bra_urls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="397">
   <si>
     <t>x</t>
   </si>
@@ -488,6 +488,129 @@
     <t>157</t>
   </si>
   <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
     <t>https://fbref.com/en/matches/60ef737d/Criciuma-Juventude-April-13-2024-Serie-A</t>
   </si>
   <si>
@@ -956,7 +1079,130 @@
     <t>https://fbref.com/en/matches/8cd99c81/Juventude-Atletico-Mineiro-July-16-2024-Serie-A</t>
   </si>
   <si>
+    <t>https://fbref.com/en/matches/c20dad05/Atletico-Goianiense-Vasco-da-Gama-July-17-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/1662bfc9/Sao-Paulo-Gremio-July-17-2024-Serie-A</t>
+  </si>
+  <si>
     <t>https://fbref.com/en/matches/4e96eb28/Corinthians-Criciuma-July-16-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d828c590/Fortaleza-Vitoria-July-17-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/f2802382/Botafogo-RJ-Palmeiras-July-17-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/7aa9d167/Flamengo-Criciuma-July-20-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/18ff17dd/Botafogo-RJ-Internacional-July-20-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/58dfa833/Gremio-Vitoria-July-21-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/1534c147/Bahia-Corinthians-July-21-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/57c57174/Atletico-Mineiro-Vasco-da-Gama-July-21-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/658eff3c/Red-Bull-Bragantino-Athletico-Paranaense-July-21-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/7ed52b26/Fortaleza-Atletico-Goianiense-July-21-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e4fcb89c/Juventude-Sao-Paulo-July-21-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/cedc908c/Cuiaba-Fluminense-July-21-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ae87e6ed/Palmeiras-Cruzeiro-July-20-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/39ce100c/Criciuma-Fortaleza-July-24-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/4293655d/Cruzeiro-Juventude-July-24-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/4c0485f1/Sao-Paulo-Botafogo-RJ-July-24-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/271e5c00/Vitoria-Flamengo-July-24-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/00062d3c/Corinthians-Gremio-July-25-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/4718c1cd/Atletico-Goianiense-Bahia-July-24-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/fcb3a1d2/Fluminense-Palmeiras-July-24-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/884db190/Palmeiras-Vitoria-July-27-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b4a136d6/Juventude-Criciuma-July-27-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/06a41b67/Bahia-Internacional-July-27-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/cb781e8a/Red-Bull-Bragantino-Fluminense-July-28-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/fe7b7eb3/Flamengo-Atletico-Goianiense-July-28-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c0e77847/Cuiaba-Athletico-Paranaense-July-28-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/6b6915a6/Atletico-Mineiro-Corinthians-July-28-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/79177145/Gremio-Vasco-da-Gama-July-28-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e929d90c/Botafogo-RJ-Cruzeiro-July-27-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/f514c298/Fortaleza-Sao-Paulo-July-27-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/8746caf6/Vitoria-Cuiaba-August-3-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/4348e241/Vasco-da-Gama-Red-Bull-Bragantino-August-3-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c1cfad94/Atletico-Goianiense-Botafogo-RJ-August-3-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e4bd97f5/Criciuma-Atletico-Mineiro-August-3-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/84ad3b2c/Fluminense-Bahia-August-4-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/8d8133f9/Corinthians-Juventude-August-4-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e4136a2b/Athletico-Paranaense-Gremio-August-4-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/0ea5728b/Internacional-Palmeiras-August-4-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/03c34ee9/Sao-Paulo-Flamengo-August-3-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ae2c8909/Cruzeiro-Fortaleza-August-5-2024-Serie-A</t>
   </si>
 </sst>
 </file>
@@ -1018,7 +1264,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>158</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3">
@@ -1026,7 +1272,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>159</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4">
@@ -1034,7 +1280,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>160</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5">
@@ -1042,7 +1288,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6">
@@ -1050,7 +1296,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>162</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7">
@@ -1058,7 +1304,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>163</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8">
@@ -1066,7 +1312,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>164</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9">
@@ -1074,7 +1320,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>165</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10">
@@ -1082,7 +1328,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>166</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11">
@@ -1090,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>167</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12">
@@ -1098,7 +1344,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13">
@@ -1106,7 +1352,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>169</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14">
@@ -1114,7 +1360,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>170</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15">
@@ -1122,7 +1368,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>171</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16">
@@ -1130,7 +1376,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>172</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17">
@@ -1138,7 +1384,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>173</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18">
@@ -1146,7 +1392,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>174</v>
+        <v>215</v>
       </c>
     </row>
     <row r="19">
@@ -1154,7 +1400,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>175</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20">
@@ -1162,7 +1408,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>176</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21">
@@ -1170,7 +1416,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>177</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22">
@@ -1178,7 +1424,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>178</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23">
@@ -1186,7 +1432,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>179</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24">
@@ -1194,7 +1440,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>180</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25">
@@ -1202,7 +1448,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>181</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26">
@@ -1210,7 +1456,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>182</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27">
@@ -1218,7 +1464,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>183</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28">
@@ -1226,7 +1472,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>184</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29">
@@ -1234,7 +1480,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>185</v>
+        <v>226</v>
       </c>
     </row>
     <row r="30">
@@ -1242,7 +1488,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>186</v>
+        <v>227</v>
       </c>
     </row>
     <row r="31">
@@ -1250,7 +1496,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>187</v>
+        <v>228</v>
       </c>
     </row>
     <row r="32">
@@ -1258,7 +1504,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>188</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33">
@@ -1266,7 +1512,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>189</v>
+        <v>230</v>
       </c>
     </row>
     <row r="34">
@@ -1274,7 +1520,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>190</v>
+        <v>231</v>
       </c>
     </row>
     <row r="35">
@@ -1282,7 +1528,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>191</v>
+        <v>232</v>
       </c>
     </row>
     <row r="36">
@@ -1290,7 +1536,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>192</v>
+        <v>233</v>
       </c>
     </row>
     <row r="37">
@@ -1298,7 +1544,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>193</v>
+        <v>234</v>
       </c>
     </row>
     <row r="38">
@@ -1306,7 +1552,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>194</v>
+        <v>235</v>
       </c>
     </row>
     <row r="39">
@@ -1314,7 +1560,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>195</v>
+        <v>236</v>
       </c>
     </row>
     <row r="40">
@@ -1322,7 +1568,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>196</v>
+        <v>237</v>
       </c>
     </row>
     <row r="41">
@@ -1330,7 +1576,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>197</v>
+        <v>238</v>
       </c>
     </row>
     <row r="42">
@@ -1338,7 +1584,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>198</v>
+        <v>239</v>
       </c>
     </row>
     <row r="43">
@@ -1346,7 +1592,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>199</v>
+        <v>240</v>
       </c>
     </row>
     <row r="44">
@@ -1354,7 +1600,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>200</v>
+        <v>241</v>
       </c>
     </row>
     <row r="45">
@@ -1362,7 +1608,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>201</v>
+        <v>242</v>
       </c>
     </row>
     <row r="46">
@@ -1370,7 +1616,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>202</v>
+        <v>243</v>
       </c>
     </row>
     <row r="47">
@@ -1378,7 +1624,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>203</v>
+        <v>244</v>
       </c>
     </row>
     <row r="48">
@@ -1386,7 +1632,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>204</v>
+        <v>245</v>
       </c>
     </row>
     <row r="49">
@@ -1394,7 +1640,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>205</v>
+        <v>246</v>
       </c>
     </row>
     <row r="50">
@@ -1402,7 +1648,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>206</v>
+        <v>247</v>
       </c>
     </row>
     <row r="51">
@@ -1410,7 +1656,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>207</v>
+        <v>248</v>
       </c>
     </row>
     <row r="52">
@@ -1418,7 +1664,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>208</v>
+        <v>249</v>
       </c>
     </row>
     <row r="53">
@@ -1426,7 +1672,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>209</v>
+        <v>250</v>
       </c>
     </row>
     <row r="54">
@@ -1434,7 +1680,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>210</v>
+        <v>251</v>
       </c>
     </row>
     <row r="55">
@@ -1442,7 +1688,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>211</v>
+        <v>252</v>
       </c>
     </row>
     <row r="56">
@@ -1450,7 +1696,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>212</v>
+        <v>253</v>
       </c>
     </row>
     <row r="57">
@@ -1458,7 +1704,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>213</v>
+        <v>254</v>
       </c>
     </row>
     <row r="58">
@@ -1466,7 +1712,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>214</v>
+        <v>255</v>
       </c>
     </row>
     <row r="59">
@@ -1474,7 +1720,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>215</v>
+        <v>256</v>
       </c>
     </row>
     <row r="60">
@@ -1482,7 +1728,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>216</v>
+        <v>257</v>
       </c>
     </row>
     <row r="61">
@@ -1490,7 +1736,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>217</v>
+        <v>258</v>
       </c>
     </row>
     <row r="62">
@@ -1498,7 +1744,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>218</v>
+        <v>259</v>
       </c>
     </row>
     <row r="63">
@@ -1506,7 +1752,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>219</v>
+        <v>260</v>
       </c>
     </row>
     <row r="64">
@@ -1514,7 +1760,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>220</v>
+        <v>261</v>
       </c>
     </row>
     <row r="65">
@@ -1522,7 +1768,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>221</v>
+        <v>262</v>
       </c>
     </row>
     <row r="66">
@@ -1530,7 +1776,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>222</v>
+        <v>263</v>
       </c>
     </row>
     <row r="67">
@@ -1538,7 +1784,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>223</v>
+        <v>264</v>
       </c>
     </row>
     <row r="68">
@@ -1546,7 +1792,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>224</v>
+        <v>265</v>
       </c>
     </row>
     <row r="69">
@@ -1554,7 +1800,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>225</v>
+        <v>266</v>
       </c>
     </row>
     <row r="70">
@@ -1562,7 +1808,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>226</v>
+        <v>267</v>
       </c>
     </row>
     <row r="71">
@@ -1570,7 +1816,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>227</v>
+        <v>268</v>
       </c>
     </row>
     <row r="72">
@@ -1578,7 +1824,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>228</v>
+        <v>269</v>
       </c>
     </row>
     <row r="73">
@@ -1586,7 +1832,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>229</v>
+        <v>270</v>
       </c>
     </row>
     <row r="74">
@@ -1594,7 +1840,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>230</v>
+        <v>271</v>
       </c>
     </row>
     <row r="75">
@@ -1602,7 +1848,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>231</v>
+        <v>272</v>
       </c>
     </row>
     <row r="76">
@@ -1610,7 +1856,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>232</v>
+        <v>273</v>
       </c>
     </row>
     <row r="77">
@@ -1618,7 +1864,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>233</v>
+        <v>274</v>
       </c>
     </row>
     <row r="78">
@@ -1626,7 +1872,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>234</v>
+        <v>275</v>
       </c>
     </row>
     <row r="79">
@@ -1634,7 +1880,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>235</v>
+        <v>276</v>
       </c>
     </row>
     <row r="80">
@@ -1642,7 +1888,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>236</v>
+        <v>277</v>
       </c>
     </row>
     <row r="81">
@@ -1650,7 +1896,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>237</v>
+        <v>278</v>
       </c>
     </row>
     <row r="82">
@@ -1658,7 +1904,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>238</v>
+        <v>279</v>
       </c>
     </row>
     <row r="83">
@@ -1666,7 +1912,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>239</v>
+        <v>280</v>
       </c>
     </row>
     <row r="84">
@@ -1674,7 +1920,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>240</v>
+        <v>281</v>
       </c>
     </row>
     <row r="85">
@@ -1682,7 +1928,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>241</v>
+        <v>282</v>
       </c>
     </row>
     <row r="86">
@@ -1690,7 +1936,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>242</v>
+        <v>283</v>
       </c>
     </row>
     <row r="87">
@@ -1698,7 +1944,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>243</v>
+        <v>284</v>
       </c>
     </row>
     <row r="88">
@@ -1706,7 +1952,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>244</v>
+        <v>285</v>
       </c>
     </row>
     <row r="89">
@@ -1714,7 +1960,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>245</v>
+        <v>286</v>
       </c>
     </row>
     <row r="90">
@@ -1722,7 +1968,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>246</v>
+        <v>287</v>
       </c>
     </row>
     <row r="91">
@@ -1730,7 +1976,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>247</v>
+        <v>288</v>
       </c>
     </row>
     <row r="92">
@@ -1738,7 +1984,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>248</v>
+        <v>289</v>
       </c>
     </row>
     <row r="93">
@@ -1746,7 +1992,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>249</v>
+        <v>290</v>
       </c>
     </row>
     <row r="94">
@@ -1754,7 +2000,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>250</v>
+        <v>291</v>
       </c>
     </row>
     <row r="95">
@@ -1762,7 +2008,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>251</v>
+        <v>292</v>
       </c>
     </row>
     <row r="96">
@@ -1770,7 +2016,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>252</v>
+        <v>293</v>
       </c>
     </row>
     <row r="97">
@@ -1778,7 +2024,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>253</v>
+        <v>294</v>
       </c>
     </row>
     <row r="98">
@@ -1786,7 +2032,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>254</v>
+        <v>295</v>
       </c>
     </row>
     <row r="99">
@@ -1794,7 +2040,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>255</v>
+        <v>296</v>
       </c>
     </row>
     <row r="100">
@@ -1802,7 +2048,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>256</v>
+        <v>297</v>
       </c>
     </row>
     <row r="101">
@@ -1810,7 +2056,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>257</v>
+        <v>298</v>
       </c>
     </row>
     <row r="102">
@@ -1818,7 +2064,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>258</v>
+        <v>299</v>
       </c>
     </row>
     <row r="103">
@@ -1826,7 +2072,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>259</v>
+        <v>300</v>
       </c>
     </row>
     <row r="104">
@@ -1834,7 +2080,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>260</v>
+        <v>301</v>
       </c>
     </row>
     <row r="105">
@@ -1842,7 +2088,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>261</v>
+        <v>302</v>
       </c>
     </row>
     <row r="106">
@@ -1850,7 +2096,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>262</v>
+        <v>303</v>
       </c>
     </row>
     <row r="107">
@@ -1858,7 +2104,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>263</v>
+        <v>304</v>
       </c>
     </row>
     <row r="108">
@@ -1866,7 +2112,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>264</v>
+        <v>305</v>
       </c>
     </row>
     <row r="109">
@@ -1874,7 +2120,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>265</v>
+        <v>306</v>
       </c>
     </row>
     <row r="110">
@@ -1882,7 +2128,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>266</v>
+        <v>307</v>
       </c>
     </row>
     <row r="111">
@@ -1890,7 +2136,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>267</v>
+        <v>308</v>
       </c>
     </row>
     <row r="112">
@@ -1898,7 +2144,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>268</v>
+        <v>309</v>
       </c>
     </row>
     <row r="113">
@@ -1906,7 +2152,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>269</v>
+        <v>310</v>
       </c>
     </row>
     <row r="114">
@@ -1914,7 +2160,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>270</v>
+        <v>311</v>
       </c>
     </row>
     <row r="115">
@@ -1922,7 +2168,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>271</v>
+        <v>312</v>
       </c>
     </row>
     <row r="116">
@@ -1930,7 +2176,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>272</v>
+        <v>313</v>
       </c>
     </row>
     <row r="117">
@@ -1938,7 +2184,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>273</v>
+        <v>314</v>
       </c>
     </row>
     <row r="118">
@@ -1946,7 +2192,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>274</v>
+        <v>315</v>
       </c>
     </row>
     <row r="119">
@@ -1954,7 +2200,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>275</v>
+        <v>316</v>
       </c>
     </row>
     <row r="120">
@@ -1962,7 +2208,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>276</v>
+        <v>317</v>
       </c>
     </row>
     <row r="121">
@@ -1970,7 +2216,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>277</v>
+        <v>318</v>
       </c>
     </row>
     <row r="122">
@@ -1978,7 +2224,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>278</v>
+        <v>319</v>
       </c>
     </row>
     <row r="123">
@@ -1986,7 +2232,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>279</v>
+        <v>320</v>
       </c>
     </row>
     <row r="124">
@@ -1994,7 +2240,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>280</v>
+        <v>321</v>
       </c>
     </row>
     <row r="125">
@@ -2002,7 +2248,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>281</v>
+        <v>322</v>
       </c>
     </row>
     <row r="126">
@@ -2010,7 +2256,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>282</v>
+        <v>323</v>
       </c>
     </row>
     <row r="127">
@@ -2018,7 +2264,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>283</v>
+        <v>324</v>
       </c>
     </row>
     <row r="128">
@@ -2026,7 +2272,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>284</v>
+        <v>325</v>
       </c>
     </row>
     <row r="129">
@@ -2034,7 +2280,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>285</v>
+        <v>326</v>
       </c>
     </row>
     <row r="130">
@@ -2042,7 +2288,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>286</v>
+        <v>327</v>
       </c>
     </row>
     <row r="131">
@@ -2050,7 +2296,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>287</v>
+        <v>328</v>
       </c>
     </row>
     <row r="132">
@@ -2058,7 +2304,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>288</v>
+        <v>329</v>
       </c>
     </row>
     <row r="133">
@@ -2066,7 +2312,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>289</v>
+        <v>330</v>
       </c>
     </row>
     <row r="134">
@@ -2074,7 +2320,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>290</v>
+        <v>331</v>
       </c>
     </row>
     <row r="135">
@@ -2082,7 +2328,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>291</v>
+        <v>332</v>
       </c>
     </row>
     <row r="136">
@@ -2090,7 +2336,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>292</v>
+        <v>333</v>
       </c>
     </row>
     <row r="137">
@@ -2098,7 +2344,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>293</v>
+        <v>334</v>
       </c>
     </row>
     <row r="138">
@@ -2106,7 +2352,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>294</v>
+        <v>335</v>
       </c>
     </row>
     <row r="139">
@@ -2114,7 +2360,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>295</v>
+        <v>336</v>
       </c>
     </row>
     <row r="140">
@@ -2122,7 +2368,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>296</v>
+        <v>337</v>
       </c>
     </row>
     <row r="141">
@@ -2130,7 +2376,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>297</v>
+        <v>338</v>
       </c>
     </row>
     <row r="142">
@@ -2138,7 +2384,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>298</v>
+        <v>339</v>
       </c>
     </row>
     <row r="143">
@@ -2146,7 +2392,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>299</v>
+        <v>340</v>
       </c>
     </row>
     <row r="144">
@@ -2154,7 +2400,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>300</v>
+        <v>341</v>
       </c>
     </row>
     <row r="145">
@@ -2162,7 +2408,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>301</v>
+        <v>342</v>
       </c>
     </row>
     <row r="146">
@@ -2170,7 +2416,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>302</v>
+        <v>343</v>
       </c>
     </row>
     <row r="147">
@@ -2178,7 +2424,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>303</v>
+        <v>344</v>
       </c>
     </row>
     <row r="148">
@@ -2186,7 +2432,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>304</v>
+        <v>345</v>
       </c>
     </row>
     <row r="149">
@@ -2194,7 +2440,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>305</v>
+        <v>346</v>
       </c>
     </row>
     <row r="150">
@@ -2202,7 +2448,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>306</v>
+        <v>347</v>
       </c>
     </row>
     <row r="151">
@@ -2210,7 +2456,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>307</v>
+        <v>348</v>
       </c>
     </row>
     <row r="152">
@@ -2218,7 +2464,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>308</v>
+        <v>349</v>
       </c>
     </row>
     <row r="153">
@@ -2226,7 +2472,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>309</v>
+        <v>350</v>
       </c>
     </row>
     <row r="154">
@@ -2234,7 +2480,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>310</v>
+        <v>351</v>
       </c>
     </row>
     <row r="155">
@@ -2242,7 +2488,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>311</v>
+        <v>352</v>
       </c>
     </row>
     <row r="156">
@@ -2250,7 +2496,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>312</v>
+        <v>353</v>
       </c>
     </row>
     <row r="157">
@@ -2258,7 +2504,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>313</v>
+        <v>354</v>
       </c>
     </row>
     <row r="158">
@@ -2266,7 +2512,335 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>314</v>
+        <v>355</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>161</v>
+      </c>
+      <c r="B162" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>162</v>
+      </c>
+      <c r="B163" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>165</v>
+      </c>
+      <c r="B166" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>166</v>
+      </c>
+      <c r="B167" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>167</v>
+      </c>
+      <c r="B168" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>168</v>
+      </c>
+      <c r="B169" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>169</v>
+      </c>
+      <c r="B170" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>170</v>
+      </c>
+      <c r="B171" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>171</v>
+      </c>
+      <c r="B172" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>172</v>
+      </c>
+      <c r="B173" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>173</v>
+      </c>
+      <c r="B174" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>174</v>
+      </c>
+      <c r="B175" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>175</v>
+      </c>
+      <c r="B176" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>176</v>
+      </c>
+      <c r="B177" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>177</v>
+      </c>
+      <c r="B178" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>178</v>
+      </c>
+      <c r="B179" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>179</v>
+      </c>
+      <c r="B180" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>180</v>
+      </c>
+      <c r="B181" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>181</v>
+      </c>
+      <c r="B182" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>182</v>
+      </c>
+      <c r="B183" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>183</v>
+      </c>
+      <c r="B184" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>184</v>
+      </c>
+      <c r="B185" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>185</v>
+      </c>
+      <c r="B186" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>186</v>
+      </c>
+      <c r="B187" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>187</v>
+      </c>
+      <c r="B188" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>188</v>
+      </c>
+      <c r="B189" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>189</v>
+      </c>
+      <c r="B190" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>190</v>
+      </c>
+      <c r="B191" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>191</v>
+      </c>
+      <c r="B192" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>192</v>
+      </c>
+      <c r="B193" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>193</v>
+      </c>
+      <c r="B194" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>194</v>
+      </c>
+      <c r="B195" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>195</v>
+      </c>
+      <c r="B196" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>196</v>
+      </c>
+      <c r="B197" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>197</v>
+      </c>
+      <c r="B198" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>198</v>
+      </c>
+      <c r="B199" t="s">
+        <v>396</v>
       </c>
     </row>
   </sheetData>

--- a/bra_urls.xlsx
+++ b/bra_urls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="485">
   <si>
     <t>x</t>
   </si>
@@ -611,6 +611,138 @@
     <t>198</t>
   </si>
   <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>209</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>213</t>
+  </si>
+  <si>
+    <t>214</t>
+  </si>
+  <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>217</t>
+  </si>
+  <si>
+    <t>218</t>
+  </si>
+  <si>
+    <t>219</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>221</t>
+  </si>
+  <si>
+    <t>222</t>
+  </si>
+  <si>
+    <t>223</t>
+  </si>
+  <si>
+    <t>224</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>226</t>
+  </si>
+  <si>
+    <t>227</t>
+  </si>
+  <si>
+    <t>228</t>
+  </si>
+  <si>
+    <t>229</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>231</t>
+  </si>
+  <si>
+    <t>232</t>
+  </si>
+  <si>
+    <t>233</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>235</t>
+  </si>
+  <si>
+    <t>236</t>
+  </si>
+  <si>
+    <t>237</t>
+  </si>
+  <si>
+    <t>238</t>
+  </si>
+  <si>
+    <t>239</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>241</t>
+  </si>
+  <si>
+    <t>242</t>
+  </si>
+  <si>
     <t>https://fbref.com/en/matches/60ef737d/Criciuma-Juventude-April-13-2024-Serie-A</t>
   </si>
   <si>
@@ -1203,6 +1335,138 @@
   </si>
   <si>
     <t>https://fbref.com/en/matches/ae2c8909/Cruzeiro-Fortaleza-August-5-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/847a24c6/Fortaleza-Criciuma-August-10-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/09ccc6cb/Cuiaba-Gremio-August-10-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/167fb7f9/Juventude-Botafogo-RJ-August-11-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/2e98871f/Sao-Paulo-Atletico-Goianiense-August-11-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/f7b319c1/Flamengo-Palmeiras-August-11-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/f9bd370e/Bahia-Vitoria-August-11-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/054386b8/Internacional-Athletico-Paranaense-August-11-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/0da8aa4b/Cruzeiro-Atletico-Mineiro-August-10-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/543a286f/Corinthians-Red-Bull-Bragantino-August-10-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e8c91184/Vasco-da-Gama-Fluminense-August-10-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/9f6a7147/Internacional-Juventude-August-14-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/8a93999b/Atletico-Mineiro-Cuiaba-August-17-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d56320ae/Gremio-Bahia-August-17-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/3f87541a/Red-Bull-Bragantino-Fortaleza-August-17-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/12ad16ea/Criciuma-Vasco-da-Gama-August-18-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/79a0b727/Palmeiras-Sao-Paulo-August-18-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/917e890f/Atletico-Goianiense-Internacional-August-18-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/988ff3e3/Athletico-Paranaense-Juventude-August-18-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ba80f8ac/Botafogo-RJ-Flamengo-August-18-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/abab024d/Fluminense-Corinthians-August-17-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/884e2774/Vitoria-Cruzeiro-August-19-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/6fb2b1d3/Atletico-Goianiense-Juventude-August-24-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/693cf3cb/Palmeiras-Cuiaba-August-24-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/16714502/Criciuma-Gremio-August-25-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/7f4e3af4/Bahia-Botafogo-RJ-August-25-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c0a8d1ea/Fortaleza-Corinthians-August-25-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/79532d5b/Sao-Paulo-Vitoria-August-25-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/0064222d/Internacional-Cruzeiro-August-25-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/268c1068/Flamengo-Red-Bull-Bragantino-August-25-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/0b5f6fda/Atletico-Mineiro-Fluminense-August-24-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c37ad833/Vasco-da-Gama-Athletico-Paranaense-August-26-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/96cdceb8/Cruzeiro-Internacional-August-28-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/5fe90dc4/Criciuma-Red-Bull-Bragantino-August-28-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/12d1e09f/Cuiaba-Criciuma-August-31-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/0e8cf33e/Cruzeiro-Atletico-Goianiense-September-1-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/87ef338c/Gremio-Atletico-Mineiro-September-1-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c2e50275/Corinthians-Flamengo-September-1-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/1d332259/Juventude-Internacional-September-1-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/9818b8f0/Athletico-Paranaense-Palmeiras-September-1-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ba9764f8/Fluminense-Sao-Paulo-September-1-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c9178fde/Vitoria-Vasco-da-Gama-September-1-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/fa27d6de/Red-Bull-Bragantino-Bahia-September-1-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/fe3afc8c/Botafogo-RJ-Fortaleza-August-31-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/81ad2795/Cuiaba-Juventude-September-5-2024-Serie-A</t>
   </si>
 </sst>
 </file>
@@ -1264,7 +1528,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>199</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3">
@@ -1272,7 +1536,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>200</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4">
@@ -1280,7 +1544,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>201</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5">
@@ -1288,7 +1552,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>202</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6">
@@ -1296,7 +1560,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>203</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7">
@@ -1304,7 +1568,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>204</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8">
@@ -1312,7 +1576,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>205</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9">
@@ -1320,7 +1584,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>206</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10">
@@ -1328,7 +1592,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>207</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11">
@@ -1336,7 +1600,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>208</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12">
@@ -1344,7 +1608,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>209</v>
+        <v>253</v>
       </c>
     </row>
     <row r="13">
@@ -1352,7 +1616,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>210</v>
+        <v>254</v>
       </c>
     </row>
     <row r="14">
@@ -1360,7 +1624,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>211</v>
+        <v>255</v>
       </c>
     </row>
     <row r="15">
@@ -1368,7 +1632,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>212</v>
+        <v>256</v>
       </c>
     </row>
     <row r="16">
@@ -1376,7 +1640,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>213</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17">
@@ -1384,7 +1648,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>214</v>
+        <v>258</v>
       </c>
     </row>
     <row r="18">
@@ -1392,7 +1656,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>215</v>
+        <v>259</v>
       </c>
     </row>
     <row r="19">
@@ -1400,7 +1664,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>216</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20">
@@ -1408,7 +1672,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>217</v>
+        <v>261</v>
       </c>
     </row>
     <row r="21">
@@ -1416,7 +1680,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>218</v>
+        <v>262</v>
       </c>
     </row>
     <row r="22">
@@ -1424,7 +1688,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>219</v>
+        <v>263</v>
       </c>
     </row>
     <row r="23">
@@ -1432,7 +1696,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>220</v>
+        <v>264</v>
       </c>
     </row>
     <row r="24">
@@ -1440,7 +1704,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>221</v>
+        <v>265</v>
       </c>
     </row>
     <row r="25">
@@ -1448,7 +1712,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>222</v>
+        <v>266</v>
       </c>
     </row>
     <row r="26">
@@ -1456,7 +1720,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>223</v>
+        <v>267</v>
       </c>
     </row>
     <row r="27">
@@ -1464,7 +1728,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>224</v>
+        <v>268</v>
       </c>
     </row>
     <row r="28">
@@ -1472,7 +1736,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>225</v>
+        <v>269</v>
       </c>
     </row>
     <row r="29">
@@ -1480,7 +1744,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>226</v>
+        <v>270</v>
       </c>
     </row>
     <row r="30">
@@ -1488,7 +1752,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>227</v>
+        <v>271</v>
       </c>
     </row>
     <row r="31">
@@ -1496,7 +1760,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>228</v>
+        <v>272</v>
       </c>
     </row>
     <row r="32">
@@ -1504,7 +1768,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>229</v>
+        <v>273</v>
       </c>
     </row>
     <row r="33">
@@ -1512,7 +1776,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>230</v>
+        <v>274</v>
       </c>
     </row>
     <row r="34">
@@ -1520,7 +1784,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>231</v>
+        <v>275</v>
       </c>
     </row>
     <row r="35">
@@ -1528,7 +1792,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>232</v>
+        <v>276</v>
       </c>
     </row>
     <row r="36">
@@ -1536,7 +1800,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>233</v>
+        <v>277</v>
       </c>
     </row>
     <row r="37">
@@ -1544,7 +1808,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>234</v>
+        <v>278</v>
       </c>
     </row>
     <row r="38">
@@ -1552,7 +1816,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>235</v>
+        <v>279</v>
       </c>
     </row>
     <row r="39">
@@ -1560,7 +1824,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>236</v>
+        <v>280</v>
       </c>
     </row>
     <row r="40">
@@ -1568,7 +1832,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>237</v>
+        <v>281</v>
       </c>
     </row>
     <row r="41">
@@ -1576,7 +1840,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>238</v>
+        <v>282</v>
       </c>
     </row>
     <row r="42">
@@ -1584,7 +1848,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>239</v>
+        <v>283</v>
       </c>
     </row>
     <row r="43">
@@ -1592,7 +1856,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>240</v>
+        <v>284</v>
       </c>
     </row>
     <row r="44">
@@ -1600,7 +1864,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>241</v>
+        <v>285</v>
       </c>
     </row>
     <row r="45">
@@ -1608,7 +1872,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>242</v>
+        <v>286</v>
       </c>
     </row>
     <row r="46">
@@ -1616,7 +1880,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>243</v>
+        <v>287</v>
       </c>
     </row>
     <row r="47">
@@ -1624,7 +1888,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>244</v>
+        <v>288</v>
       </c>
     </row>
     <row r="48">
@@ -1632,7 +1896,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>245</v>
+        <v>289</v>
       </c>
     </row>
     <row r="49">
@@ -1640,7 +1904,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>246</v>
+        <v>290</v>
       </c>
     </row>
     <row r="50">
@@ -1648,7 +1912,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>247</v>
+        <v>291</v>
       </c>
     </row>
     <row r="51">
@@ -1656,7 +1920,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>248</v>
+        <v>292</v>
       </c>
     </row>
     <row r="52">
@@ -1664,7 +1928,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>249</v>
+        <v>293</v>
       </c>
     </row>
     <row r="53">
@@ -1672,7 +1936,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>250</v>
+        <v>294</v>
       </c>
     </row>
     <row r="54">
@@ -1680,7 +1944,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>251</v>
+        <v>295</v>
       </c>
     </row>
     <row r="55">
@@ -1688,7 +1952,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>252</v>
+        <v>296</v>
       </c>
     </row>
     <row r="56">
@@ -1696,7 +1960,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>253</v>
+        <v>297</v>
       </c>
     </row>
     <row r="57">
@@ -1704,7 +1968,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>254</v>
+        <v>298</v>
       </c>
     </row>
     <row r="58">
@@ -1712,7 +1976,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>255</v>
+        <v>299</v>
       </c>
     </row>
     <row r="59">
@@ -1720,7 +1984,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>256</v>
+        <v>300</v>
       </c>
     </row>
     <row r="60">
@@ -1728,7 +1992,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>257</v>
+        <v>301</v>
       </c>
     </row>
     <row r="61">
@@ -1736,7 +2000,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>258</v>
+        <v>302</v>
       </c>
     </row>
     <row r="62">
@@ -1744,7 +2008,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>259</v>
+        <v>303</v>
       </c>
     </row>
     <row r="63">
@@ -1752,7 +2016,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>260</v>
+        <v>304</v>
       </c>
     </row>
     <row r="64">
@@ -1760,7 +2024,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>261</v>
+        <v>305</v>
       </c>
     </row>
     <row r="65">
@@ -1768,7 +2032,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>262</v>
+        <v>306</v>
       </c>
     </row>
     <row r="66">
@@ -1776,7 +2040,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
     </row>
     <row r="67">
@@ -1784,7 +2048,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>264</v>
+        <v>308</v>
       </c>
     </row>
     <row r="68">
@@ -1792,7 +2056,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>265</v>
+        <v>309</v>
       </c>
     </row>
     <row r="69">
@@ -1800,7 +2064,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>266</v>
+        <v>310</v>
       </c>
     </row>
     <row r="70">
@@ -1808,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>267</v>
+        <v>311</v>
       </c>
     </row>
     <row r="71">
@@ -1816,7 +2080,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>268</v>
+        <v>312</v>
       </c>
     </row>
     <row r="72">
@@ -1824,7 +2088,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>269</v>
+        <v>313</v>
       </c>
     </row>
     <row r="73">
@@ -1832,7 +2096,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>270</v>
+        <v>314</v>
       </c>
     </row>
     <row r="74">
@@ -1840,7 +2104,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>271</v>
+        <v>315</v>
       </c>
     </row>
     <row r="75">
@@ -1848,7 +2112,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>272</v>
+        <v>316</v>
       </c>
     </row>
     <row r="76">
@@ -1856,7 +2120,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>273</v>
+        <v>317</v>
       </c>
     </row>
     <row r="77">
@@ -1864,7 +2128,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>274</v>
+        <v>318</v>
       </c>
     </row>
     <row r="78">
@@ -1872,7 +2136,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>275</v>
+        <v>319</v>
       </c>
     </row>
     <row r="79">
@@ -1880,7 +2144,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>276</v>
+        <v>320</v>
       </c>
     </row>
     <row r="80">
@@ -1888,7 +2152,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>277</v>
+        <v>321</v>
       </c>
     </row>
     <row r="81">
@@ -1896,7 +2160,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>278</v>
+        <v>322</v>
       </c>
     </row>
     <row r="82">
@@ -1904,7 +2168,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>279</v>
+        <v>323</v>
       </c>
     </row>
     <row r="83">
@@ -1912,7 +2176,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>280</v>
+        <v>324</v>
       </c>
     </row>
     <row r="84">
@@ -1920,7 +2184,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>281</v>
+        <v>325</v>
       </c>
     </row>
     <row r="85">
@@ -1928,7 +2192,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>282</v>
+        <v>326</v>
       </c>
     </row>
     <row r="86">
@@ -1936,7 +2200,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
     </row>
     <row r="87">
@@ -1944,7 +2208,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>284</v>
+        <v>328</v>
       </c>
     </row>
     <row r="88">
@@ -1952,7 +2216,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>285</v>
+        <v>329</v>
       </c>
     </row>
     <row r="89">
@@ -1960,7 +2224,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>286</v>
+        <v>330</v>
       </c>
     </row>
     <row r="90">
@@ -1968,7 +2232,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>287</v>
+        <v>331</v>
       </c>
     </row>
     <row r="91">
@@ -1976,7 +2240,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>288</v>
+        <v>332</v>
       </c>
     </row>
     <row r="92">
@@ -1984,7 +2248,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>289</v>
+        <v>333</v>
       </c>
     </row>
     <row r="93">
@@ -1992,7 +2256,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>290</v>
+        <v>334</v>
       </c>
     </row>
     <row r="94">
@@ -2000,7 +2264,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>291</v>
+        <v>335</v>
       </c>
     </row>
     <row r="95">
@@ -2008,7 +2272,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
     </row>
     <row r="96">
@@ -2016,7 +2280,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>293</v>
+        <v>337</v>
       </c>
     </row>
     <row r="97">
@@ -2024,7 +2288,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
     </row>
     <row r="98">
@@ -2032,7 +2296,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>295</v>
+        <v>339</v>
       </c>
     </row>
     <row r="99">
@@ -2040,7 +2304,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>296</v>
+        <v>340</v>
       </c>
     </row>
     <row r="100">
@@ -2048,7 +2312,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>297</v>
+        <v>341</v>
       </c>
     </row>
     <row r="101">
@@ -2056,7 +2320,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>298</v>
+        <v>342</v>
       </c>
     </row>
     <row r="102">
@@ -2064,7 +2328,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>299</v>
+        <v>343</v>
       </c>
     </row>
     <row r="103">
@@ -2072,7 +2336,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>300</v>
+        <v>344</v>
       </c>
     </row>
     <row r="104">
@@ -2080,7 +2344,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>301</v>
+        <v>345</v>
       </c>
     </row>
     <row r="105">
@@ -2088,7 +2352,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>302</v>
+        <v>346</v>
       </c>
     </row>
     <row r="106">
@@ -2096,7 +2360,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>303</v>
+        <v>347</v>
       </c>
     </row>
     <row r="107">
@@ -2104,7 +2368,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>304</v>
+        <v>348</v>
       </c>
     </row>
     <row r="108">
@@ -2112,7 +2376,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>305</v>
+        <v>349</v>
       </c>
     </row>
     <row r="109">
@@ -2120,7 +2384,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>306</v>
+        <v>350</v>
       </c>
     </row>
     <row r="110">
@@ -2128,7 +2392,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>307</v>
+        <v>351</v>
       </c>
     </row>
     <row r="111">
@@ -2136,7 +2400,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>308</v>
+        <v>352</v>
       </c>
     </row>
     <row r="112">
@@ -2144,7 +2408,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>309</v>
+        <v>353</v>
       </c>
     </row>
     <row r="113">
@@ -2152,7 +2416,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>310</v>
+        <v>354</v>
       </c>
     </row>
     <row r="114">
@@ -2160,7 +2424,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>311</v>
+        <v>355</v>
       </c>
     </row>
     <row r="115">
@@ -2168,7 +2432,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>312</v>
+        <v>356</v>
       </c>
     </row>
     <row r="116">
@@ -2176,7 +2440,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
     </row>
     <row r="117">
@@ -2184,7 +2448,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>314</v>
+        <v>358</v>
       </c>
     </row>
     <row r="118">
@@ -2192,7 +2456,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>315</v>
+        <v>359</v>
       </c>
     </row>
     <row r="119">
@@ -2200,7 +2464,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>316</v>
+        <v>360</v>
       </c>
     </row>
     <row r="120">
@@ -2208,7 +2472,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>317</v>
+        <v>361</v>
       </c>
     </row>
     <row r="121">
@@ -2216,7 +2480,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>318</v>
+        <v>362</v>
       </c>
     </row>
     <row r="122">
@@ -2224,7 +2488,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>319</v>
+        <v>363</v>
       </c>
     </row>
     <row r="123">
@@ -2232,7 +2496,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>320</v>
+        <v>364</v>
       </c>
     </row>
     <row r="124">
@@ -2240,7 +2504,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>321</v>
+        <v>365</v>
       </c>
     </row>
     <row r="125">
@@ -2248,7 +2512,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>322</v>
+        <v>366</v>
       </c>
     </row>
     <row r="126">
@@ -2256,7 +2520,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>323</v>
+        <v>367</v>
       </c>
     </row>
     <row r="127">
@@ -2264,7 +2528,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>324</v>
+        <v>368</v>
       </c>
     </row>
     <row r="128">
@@ -2272,7 +2536,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>325</v>
+        <v>369</v>
       </c>
     </row>
     <row r="129">
@@ -2280,7 +2544,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>326</v>
+        <v>370</v>
       </c>
     </row>
     <row r="130">
@@ -2288,7 +2552,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>327</v>
+        <v>371</v>
       </c>
     </row>
     <row r="131">
@@ -2296,7 +2560,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>328</v>
+        <v>372</v>
       </c>
     </row>
     <row r="132">
@@ -2304,7 +2568,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>329</v>
+        <v>373</v>
       </c>
     </row>
     <row r="133">
@@ -2312,7 +2576,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>330</v>
+        <v>374</v>
       </c>
     </row>
     <row r="134">
@@ -2320,7 +2584,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>331</v>
+        <v>375</v>
       </c>
     </row>
     <row r="135">
@@ -2328,7 +2592,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>332</v>
+        <v>376</v>
       </c>
     </row>
     <row r="136">
@@ -2336,7 +2600,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>333</v>
+        <v>377</v>
       </c>
     </row>
     <row r="137">
@@ -2344,7 +2608,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>334</v>
+        <v>378</v>
       </c>
     </row>
     <row r="138">
@@ -2352,7 +2616,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>335</v>
+        <v>379</v>
       </c>
     </row>
     <row r="139">
@@ -2360,7 +2624,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>336</v>
+        <v>380</v>
       </c>
     </row>
     <row r="140">
@@ -2368,7 +2632,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>337</v>
+        <v>381</v>
       </c>
     </row>
     <row r="141">
@@ -2376,7 +2640,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>338</v>
+        <v>382</v>
       </c>
     </row>
     <row r="142">
@@ -2384,7 +2648,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>339</v>
+        <v>383</v>
       </c>
     </row>
     <row r="143">
@@ -2392,7 +2656,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>340</v>
+        <v>384</v>
       </c>
     </row>
     <row r="144">
@@ -2400,7 +2664,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>341</v>
+        <v>385</v>
       </c>
     </row>
     <row r="145">
@@ -2408,7 +2672,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>342</v>
+        <v>386</v>
       </c>
     </row>
     <row r="146">
@@ -2416,7 +2680,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>343</v>
+        <v>387</v>
       </c>
     </row>
     <row r="147">
@@ -2424,7 +2688,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>344</v>
+        <v>388</v>
       </c>
     </row>
     <row r="148">
@@ -2432,7 +2696,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>345</v>
+        <v>389</v>
       </c>
     </row>
     <row r="149">
@@ -2440,7 +2704,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>346</v>
+        <v>390</v>
       </c>
     </row>
     <row r="150">
@@ -2448,7 +2712,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>347</v>
+        <v>391</v>
       </c>
     </row>
     <row r="151">
@@ -2456,7 +2720,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>348</v>
+        <v>392</v>
       </c>
     </row>
     <row r="152">
@@ -2464,7 +2728,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>349</v>
+        <v>393</v>
       </c>
     </row>
     <row r="153">
@@ -2472,7 +2736,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>350</v>
+        <v>394</v>
       </c>
     </row>
     <row r="154">
@@ -2480,7 +2744,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>351</v>
+        <v>395</v>
       </c>
     </row>
     <row r="155">
@@ -2488,7 +2752,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>352</v>
+        <v>396</v>
       </c>
     </row>
     <row r="156">
@@ -2496,7 +2760,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>353</v>
+        <v>397</v>
       </c>
     </row>
     <row r="157">
@@ -2504,7 +2768,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>354</v>
+        <v>398</v>
       </c>
     </row>
     <row r="158">
@@ -2512,7 +2776,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>355</v>
+        <v>399</v>
       </c>
     </row>
     <row r="159">
@@ -2520,7 +2784,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>356</v>
+        <v>400</v>
       </c>
     </row>
     <row r="160">
@@ -2528,7 +2792,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>357</v>
+        <v>401</v>
       </c>
     </row>
     <row r="161">
@@ -2536,7 +2800,7 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>358</v>
+        <v>402</v>
       </c>
     </row>
     <row r="162">
@@ -2544,7 +2808,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>359</v>
+        <v>403</v>
       </c>
     </row>
     <row r="163">
@@ -2552,7 +2816,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>360</v>
+        <v>404</v>
       </c>
     </row>
     <row r="164">
@@ -2560,7 +2824,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>361</v>
+        <v>405</v>
       </c>
     </row>
     <row r="165">
@@ -2568,7 +2832,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>362</v>
+        <v>406</v>
       </c>
     </row>
     <row r="166">
@@ -2576,7 +2840,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>363</v>
+        <v>407</v>
       </c>
     </row>
     <row r="167">
@@ -2584,7 +2848,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>364</v>
+        <v>408</v>
       </c>
     </row>
     <row r="168">
@@ -2592,7 +2856,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>365</v>
+        <v>409</v>
       </c>
     </row>
     <row r="169">
@@ -2600,7 +2864,7 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>366</v>
+        <v>410</v>
       </c>
     </row>
     <row r="170">
@@ -2608,7 +2872,7 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>367</v>
+        <v>411</v>
       </c>
     </row>
     <row r="171">
@@ -2616,7 +2880,7 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>368</v>
+        <v>412</v>
       </c>
     </row>
     <row r="172">
@@ -2624,7 +2888,7 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>369</v>
+        <v>413</v>
       </c>
     </row>
     <row r="173">
@@ -2632,7 +2896,7 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>370</v>
+        <v>414</v>
       </c>
     </row>
     <row r="174">
@@ -2640,7 +2904,7 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>371</v>
+        <v>415</v>
       </c>
     </row>
     <row r="175">
@@ -2648,7 +2912,7 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>372</v>
+        <v>416</v>
       </c>
     </row>
     <row r="176">
@@ -2656,7 +2920,7 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>373</v>
+        <v>417</v>
       </c>
     </row>
     <row r="177">
@@ -2664,7 +2928,7 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>374</v>
+        <v>418</v>
       </c>
     </row>
     <row r="178">
@@ -2672,7 +2936,7 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>375</v>
+        <v>419</v>
       </c>
     </row>
     <row r="179">
@@ -2680,7 +2944,7 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>376</v>
+        <v>420</v>
       </c>
     </row>
     <row r="180">
@@ -2688,7 +2952,7 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>377</v>
+        <v>421</v>
       </c>
     </row>
     <row r="181">
@@ -2696,7 +2960,7 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>378</v>
+        <v>422</v>
       </c>
     </row>
     <row r="182">
@@ -2704,7 +2968,7 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>379</v>
+        <v>423</v>
       </c>
     </row>
     <row r="183">
@@ -2712,7 +2976,7 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>380</v>
+        <v>424</v>
       </c>
     </row>
     <row r="184">
@@ -2720,7 +2984,7 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>381</v>
+        <v>425</v>
       </c>
     </row>
     <row r="185">
@@ -2728,7 +2992,7 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>382</v>
+        <v>426</v>
       </c>
     </row>
     <row r="186">
@@ -2736,7 +3000,7 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>383</v>
+        <v>427</v>
       </c>
     </row>
     <row r="187">
@@ -2744,7 +3008,7 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>384</v>
+        <v>428</v>
       </c>
     </row>
     <row r="188">
@@ -2752,7 +3016,7 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>385</v>
+        <v>429</v>
       </c>
     </row>
     <row r="189">
@@ -2760,7 +3024,7 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>386</v>
+        <v>430</v>
       </c>
     </row>
     <row r="190">
@@ -2768,7 +3032,7 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>387</v>
+        <v>431</v>
       </c>
     </row>
     <row r="191">
@@ -2776,7 +3040,7 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>388</v>
+        <v>432</v>
       </c>
     </row>
     <row r="192">
@@ -2784,7 +3048,7 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>389</v>
+        <v>433</v>
       </c>
     </row>
     <row r="193">
@@ -2792,7 +3056,7 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>390</v>
+        <v>434</v>
       </c>
     </row>
     <row r="194">
@@ -2800,7 +3064,7 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>391</v>
+        <v>435</v>
       </c>
     </row>
     <row r="195">
@@ -2808,7 +3072,7 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>392</v>
+        <v>436</v>
       </c>
     </row>
     <row r="196">
@@ -2816,7 +3080,7 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>393</v>
+        <v>437</v>
       </c>
     </row>
     <row r="197">
@@ -2824,7 +3088,7 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>394</v>
+        <v>438</v>
       </c>
     </row>
     <row r="198">
@@ -2832,7 +3096,7 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>395</v>
+        <v>439</v>
       </c>
     </row>
     <row r="199">
@@ -2840,7 +3104,359 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>396</v>
+        <v>440</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>199</v>
+      </c>
+      <c r="B200" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>200</v>
+      </c>
+      <c r="B201" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>201</v>
+      </c>
+      <c r="B202" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>202</v>
+      </c>
+      <c r="B203" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>203</v>
+      </c>
+      <c r="B204" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>204</v>
+      </c>
+      <c r="B205" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>205</v>
+      </c>
+      <c r="B206" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>206</v>
+      </c>
+      <c r="B207" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>207</v>
+      </c>
+      <c r="B208" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>208</v>
+      </c>
+      <c r="B209" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>209</v>
+      </c>
+      <c r="B210" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>210</v>
+      </c>
+      <c r="B211" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>211</v>
+      </c>
+      <c r="B212" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>212</v>
+      </c>
+      <c r="B213" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>213</v>
+      </c>
+      <c r="B214" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>214</v>
+      </c>
+      <c r="B215" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s">
+        <v>215</v>
+      </c>
+      <c r="B216" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>216</v>
+      </c>
+      <c r="B217" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>217</v>
+      </c>
+      <c r="B218" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>218</v>
+      </c>
+      <c r="B219" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s">
+        <v>219</v>
+      </c>
+      <c r="B220" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s">
+        <v>220</v>
+      </c>
+      <c r="B221" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>221</v>
+      </c>
+      <c r="B222" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>222</v>
+      </c>
+      <c r="B223" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>223</v>
+      </c>
+      <c r="B224" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>224</v>
+      </c>
+      <c r="B225" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>225</v>
+      </c>
+      <c r="B226" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s">
+        <v>226</v>
+      </c>
+      <c r="B227" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s">
+        <v>227</v>
+      </c>
+      <c r="B228" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s">
+        <v>228</v>
+      </c>
+      <c r="B229" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s">
+        <v>229</v>
+      </c>
+      <c r="B230" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s">
+        <v>230</v>
+      </c>
+      <c r="B231" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s">
+        <v>231</v>
+      </c>
+      <c r="B232" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s">
+        <v>232</v>
+      </c>
+      <c r="B233" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s">
+        <v>233</v>
+      </c>
+      <c r="B234" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s">
+        <v>234</v>
+      </c>
+      <c r="B235" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s">
+        <v>235</v>
+      </c>
+      <c r="B236" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s">
+        <v>236</v>
+      </c>
+      <c r="B237" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s">
+        <v>237</v>
+      </c>
+      <c r="B238" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s">
+        <v>238</v>
+      </c>
+      <c r="B239" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s">
+        <v>239</v>
+      </c>
+      <c r="B240" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s">
+        <v>240</v>
+      </c>
+      <c r="B241" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s">
+        <v>241</v>
+      </c>
+      <c r="B242" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s">
+        <v>242</v>
+      </c>
+      <c r="B243" t="s">
+        <v>484</v>
       </c>
     </row>
   </sheetData>
